--- a/excel/GBA_CBD.xlsx
+++ b/excel/GBA_CBD.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -517,139 +530,145 @@
     <t>281i</t>
   </si>
   <si>
+    <t>1i</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>clinically affected</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>ENST00000327247</t>
+  </si>
+  <si>
+    <t>NM_000157.3</t>
+  </si>
+  <si>
+    <t>1:155206037</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>g.8617C&gt;T</t>
+  </si>
+  <si>
+    <t>c.1223C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Thr408Met</t>
+  </si>
+  <si>
+    <t>p.Thr369Met</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>missense</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
+  </si>
+  <si>
+    <t>Likely Benign</t>
+  </si>
+  <si>
+    <t>Benign</t>
+  </si>
+  <si>
+    <t>Risk Variant</t>
+  </si>
+  <si>
+    <t>0.02851, Amish; 0.01004, European (Finnish)</t>
+  </si>
+  <si>
+    <t>rs75548401</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Risk variant</t>
+  </si>
+  <si>
     <t>282i</t>
   </si>
   <si>
     <t>283i</t>
   </si>
   <si>
-    <t>1i</t>
-  </si>
-  <si>
-    <t>cbd</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>clinically affected</t>
-  </si>
-  <si>
-    <t>GBA</t>
-  </si>
-  <si>
-    <t>ENST00000327247</t>
-  </si>
-  <si>
-    <t>NM_000157.3</t>
-  </si>
-  <si>
-    <t>1:155206037</t>
-  </si>
-  <si>
     <t>1:155205634</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>g.8617C&gt;T</t>
-  </si>
-  <si>
     <t>g.9020A&gt;G</t>
   </si>
   <si>
-    <t>c.1223C&gt;T</t>
-  </si>
-  <si>
     <t>c.1226A&gt;G</t>
   </si>
   <si>
-    <t>p.Thr408Met</t>
-  </si>
-  <si>
     <t>p.Asn409Ser</t>
   </si>
   <si>
-    <t>p.Thr369Met</t>
-  </si>
-  <si>
     <t>p.Asn370Ser</t>
   </si>
   <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>missense</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Uncertain</t>
-  </si>
-  <si>
     <t>Likely pathogenic</t>
   </si>
   <si>
-    <t>Likely Benign</t>
-  </si>
-  <si>
     <t>Likely Pathogenic</t>
   </si>
   <si>
-    <t>Benign</t>
-  </si>
-  <si>
-    <t>Risk Variant</t>
-  </si>
-  <si>
     <t>Mild</t>
   </si>
   <si>
-    <t>0.02851, Amish; 0.01004, European (Finnish)</t>
-  </si>
-  <si>
     <t>0.02834, Ashkenazi Jewish</t>
   </si>
   <si>
-    <t>rs75548401</t>
-  </si>
-  <si>
     <t>rs76763715</t>
   </si>
   <si>
     <t>8294487, 14578207, 15146461, 16293621, 19217815, 19830760, 20980259, 20643691, 21472771, 22160715, 20980263, 21653695, 22592100, 22623374, 24020503, 23642305, 23277556, 24022302, 36130205</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Risk variant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,19 +676,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -692,9 +1048,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -702,11 +1300,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -989,17 +1639,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:FG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:163">
       <c r="A1" s="1" t="s">
@@ -1521,28 +2173,28 @@
         <v>166</v>
       </c>
       <c r="J2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2">
+        <v>-99</v>
+      </c>
+      <c r="M2">
+        <v>-99</v>
+      </c>
+      <c r="N2">
+        <v>-99</v>
+      </c>
+      <c r="O2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2">
+        <v>-99</v>
+      </c>
+      <c r="Q2" t="s">
         <v>170</v>
-      </c>
-      <c r="L2">
-        <v>-99</v>
-      </c>
-      <c r="M2">
-        <v>-99</v>
-      </c>
-      <c r="N2">
-        <v>-99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2">
-        <v>-99</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
       </c>
       <c r="R2">
         <v>-99</v>
@@ -1566,7 +2218,7 @@
         <v>-99</v>
       </c>
       <c r="Y2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z2">
         <v>-99</v>
@@ -1593,353 +2245,353 @@
         <v>19</v>
       </c>
       <c r="AH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>174</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>175</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>176</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>177</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO2" t="s">
         <v>179</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>181</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS2" t="s">
         <v>183</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AT2">
+        <v>-99</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV2">
+        <v>-99</v>
+      </c>
+      <c r="AW2">
+        <v>-99</v>
+      </c>
+      <c r="AX2">
+        <v>-99</v>
+      </c>
+      <c r="AY2">
+        <v>-99</v>
+      </c>
+      <c r="AZ2">
+        <v>-99</v>
+      </c>
+      <c r="BA2">
+        <v>-99</v>
+      </c>
+      <c r="BB2">
+        <v>-99</v>
+      </c>
+      <c r="BC2">
+        <v>-99</v>
+      </c>
+      <c r="BD2">
+        <v>-99</v>
+      </c>
+      <c r="BE2">
+        <v>-99</v>
+      </c>
+      <c r="BF2">
+        <v>-99</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH2">
+        <v>-99</v>
+      </c>
+      <c r="BI2">
+        <v>-99</v>
+      </c>
+      <c r="BJ2">
+        <v>-99</v>
+      </c>
+      <c r="BK2">
+        <v>-99</v>
+      </c>
+      <c r="BL2">
+        <v>-99</v>
+      </c>
+      <c r="BM2">
+        <v>-99</v>
+      </c>
+      <c r="BN2">
+        <v>-99</v>
+      </c>
+      <c r="BO2">
+        <v>-99</v>
+      </c>
+      <c r="BP2">
+        <v>-99</v>
+      </c>
+      <c r="BQ2">
+        <v>-99</v>
+      </c>
+      <c r="BR2">
+        <v>-99</v>
+      </c>
+      <c r="BS2">
+        <v>-99</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU2">
+        <v>-99</v>
+      </c>
+      <c r="BV2">
+        <v>-99</v>
+      </c>
+      <c r="BW2">
+        <v>-99</v>
+      </c>
+      <c r="BX2">
+        <v>-99</v>
+      </c>
+      <c r="BY2">
+        <v>-99</v>
+      </c>
+      <c r="BZ2">
+        <v>-99</v>
+      </c>
+      <c r="CA2">
+        <v>-99</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC2">
+        <v>-99</v>
+      </c>
+      <c r="CD2">
+        <v>-99</v>
+      </c>
+      <c r="CE2">
+        <v>-99</v>
+      </c>
+      <c r="CF2">
+        <v>-99</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2">
+        <v>-99</v>
+      </c>
+      <c r="CI2">
+        <v>-99</v>
+      </c>
+      <c r="CJ2">
+        <v>-99</v>
+      </c>
+      <c r="CK2">
+        <v>-99</v>
+      </c>
+      <c r="CL2">
+        <v>-99</v>
+      </c>
+      <c r="CM2">
+        <v>-99</v>
+      </c>
+      <c r="CN2">
+        <v>-99</v>
+      </c>
+      <c r="CO2">
+        <v>-99</v>
+      </c>
+      <c r="CP2">
+        <v>-99</v>
+      </c>
+      <c r="CQ2">
+        <v>-99</v>
+      </c>
+      <c r="CR2">
+        <v>-99</v>
+      </c>
+      <c r="CS2">
+        <v>-99</v>
+      </c>
+      <c r="CT2">
+        <v>-99</v>
+      </c>
+      <c r="CU2">
+        <v>-99</v>
+      </c>
+      <c r="CV2">
+        <v>-99</v>
+      </c>
+      <c r="CW2">
+        <v>-99</v>
+      </c>
+      <c r="CX2">
+        <v>-99</v>
+      </c>
+      <c r="CY2">
+        <v>-99</v>
+      </c>
+      <c r="CZ2">
+        <v>-99</v>
+      </c>
+      <c r="DA2">
+        <v>-99</v>
+      </c>
+      <c r="DB2">
+        <v>-99</v>
+      </c>
+      <c r="DC2">
+        <v>-99</v>
+      </c>
+      <c r="DD2">
+        <v>-99</v>
+      </c>
+      <c r="DE2">
+        <v>-99</v>
+      </c>
+      <c r="DF2">
+        <v>-99</v>
+      </c>
+      <c r="DG2">
+        <v>-99</v>
+      </c>
+      <c r="DH2">
+        <v>-99</v>
+      </c>
+      <c r="DI2">
+        <v>-99</v>
+      </c>
+      <c r="DJ2">
+        <v>-99</v>
+      </c>
+      <c r="DK2">
+        <v>-99</v>
+      </c>
+      <c r="DL2">
+        <v>-99</v>
+      </c>
+      <c r="DM2">
+        <v>-99</v>
+      </c>
+      <c r="DN2">
+        <v>-99</v>
+      </c>
+      <c r="DO2">
+        <v>-99</v>
+      </c>
+      <c r="DP2">
+        <v>-99</v>
+      </c>
+      <c r="DQ2">
+        <v>-99</v>
+      </c>
+      <c r="DR2">
+        <v>-99</v>
+      </c>
+      <c r="DS2">
+        <v>-99</v>
+      </c>
+      <c r="DT2">
+        <v>-99</v>
+      </c>
+      <c r="DU2">
+        <v>-99</v>
+      </c>
+      <c r="DV2">
+        <v>-99</v>
+      </c>
+      <c r="DW2">
+        <v>-99</v>
+      </c>
+      <c r="DX2">
+        <v>-99</v>
+      </c>
+      <c r="DY2">
+        <v>-99</v>
+      </c>
+      <c r="DZ2">
+        <v>-99</v>
+      </c>
+      <c r="EA2">
+        <v>-99</v>
+      </c>
+      <c r="EB2">
+        <v>-99</v>
+      </c>
+      <c r="EC2">
+        <v>-99</v>
+      </c>
+      <c r="ED2" t="s">
         <v>185</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="EE2">
+        <v>-99</v>
+      </c>
+      <c r="EF2">
+        <v>-99</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EH2">
+        <v>-99</v>
+      </c>
+      <c r="EI2">
+        <v>-99</v>
+      </c>
+      <c r="EJ2" t="s">
         <v>187</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="EK2">
+        <v>-99</v>
+      </c>
+      <c r="EL2">
+        <v>-99</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>188</v>
+      </c>
+      <c r="EN2">
+        <v>-99</v>
+      </c>
+      <c r="EO2">
+        <v>-99</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>188</v>
+      </c>
+      <c r="EQ2">
+        <v>-99</v>
+      </c>
+      <c r="ER2">
+        <v>-99</v>
+      </c>
+      <c r="ES2" t="s">
         <v>189</v>
       </c>
-      <c r="AR2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT2">
-        <v>-99</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV2">
-        <v>-99</v>
-      </c>
-      <c r="AW2">
-        <v>-99</v>
-      </c>
-      <c r="AX2">
-        <v>-99</v>
-      </c>
-      <c r="AY2">
-        <v>-99</v>
-      </c>
-      <c r="AZ2">
-        <v>-99</v>
-      </c>
-      <c r="BA2">
-        <v>-99</v>
-      </c>
-      <c r="BB2">
-        <v>-99</v>
-      </c>
-      <c r="BC2">
-        <v>-99</v>
-      </c>
-      <c r="BD2">
-        <v>-99</v>
-      </c>
-      <c r="BE2">
-        <v>-99</v>
-      </c>
-      <c r="BF2">
-        <v>-99</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH2">
-        <v>-99</v>
-      </c>
-      <c r="BI2">
-        <v>-99</v>
-      </c>
-      <c r="BJ2">
-        <v>-99</v>
-      </c>
-      <c r="BK2">
-        <v>-99</v>
-      </c>
-      <c r="BL2">
-        <v>-99</v>
-      </c>
-      <c r="BM2">
-        <v>-99</v>
-      </c>
-      <c r="BN2">
-        <v>-99</v>
-      </c>
-      <c r="BO2">
-        <v>-99</v>
-      </c>
-      <c r="BP2">
-        <v>-99</v>
-      </c>
-      <c r="BQ2">
-        <v>-99</v>
-      </c>
-      <c r="BR2">
-        <v>-99</v>
-      </c>
-      <c r="BS2">
-        <v>-99</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU2">
-        <v>-99</v>
-      </c>
-      <c r="BV2">
-        <v>-99</v>
-      </c>
-      <c r="BW2">
-        <v>-99</v>
-      </c>
-      <c r="BX2">
-        <v>-99</v>
-      </c>
-      <c r="BY2">
-        <v>-99</v>
-      </c>
-      <c r="BZ2">
-        <v>-99</v>
-      </c>
-      <c r="CA2">
-        <v>-99</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC2">
-        <v>-99</v>
-      </c>
-      <c r="CD2">
-        <v>-99</v>
-      </c>
-      <c r="CE2">
-        <v>-99</v>
-      </c>
-      <c r="CF2">
-        <v>-99</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH2">
-        <v>-99</v>
-      </c>
-      <c r="CI2">
-        <v>-99</v>
-      </c>
-      <c r="CJ2">
-        <v>-99</v>
-      </c>
-      <c r="CK2">
-        <v>-99</v>
-      </c>
-      <c r="CL2">
-        <v>-99</v>
-      </c>
-      <c r="CM2">
-        <v>-99</v>
-      </c>
-      <c r="CN2">
-        <v>-99</v>
-      </c>
-      <c r="CO2">
-        <v>-99</v>
-      </c>
-      <c r="CP2">
-        <v>-99</v>
-      </c>
-      <c r="CQ2">
-        <v>-99</v>
-      </c>
-      <c r="CR2">
-        <v>-99</v>
-      </c>
-      <c r="CS2">
-        <v>-99</v>
-      </c>
-      <c r="CT2">
-        <v>-99</v>
-      </c>
-      <c r="CU2">
-        <v>-99</v>
-      </c>
-      <c r="CV2">
-        <v>-99</v>
-      </c>
-      <c r="CW2">
-        <v>-99</v>
-      </c>
-      <c r="CX2">
-        <v>-99</v>
-      </c>
-      <c r="CY2">
-        <v>-99</v>
-      </c>
-      <c r="CZ2">
-        <v>-99</v>
-      </c>
-      <c r="DA2">
-        <v>-99</v>
-      </c>
-      <c r="DB2">
-        <v>-99</v>
-      </c>
-      <c r="DC2">
-        <v>-99</v>
-      </c>
-      <c r="DD2">
-        <v>-99</v>
-      </c>
-      <c r="DE2">
-        <v>-99</v>
-      </c>
-      <c r="DF2">
-        <v>-99</v>
-      </c>
-      <c r="DG2">
-        <v>-99</v>
-      </c>
-      <c r="DH2">
-        <v>-99</v>
-      </c>
-      <c r="DI2">
-        <v>-99</v>
-      </c>
-      <c r="DJ2">
-        <v>-99</v>
-      </c>
-      <c r="DK2">
-        <v>-99</v>
-      </c>
-      <c r="DL2">
-        <v>-99</v>
-      </c>
-      <c r="DM2">
-        <v>-99</v>
-      </c>
-      <c r="DN2">
-        <v>-99</v>
-      </c>
-      <c r="DO2">
-        <v>-99</v>
-      </c>
-      <c r="DP2">
-        <v>-99</v>
-      </c>
-      <c r="DQ2">
-        <v>-99</v>
-      </c>
-      <c r="DR2">
-        <v>-99</v>
-      </c>
-      <c r="DS2">
-        <v>-99</v>
-      </c>
-      <c r="DT2">
-        <v>-99</v>
-      </c>
-      <c r="DU2">
-        <v>-99</v>
-      </c>
-      <c r="DV2">
-        <v>-99</v>
-      </c>
-      <c r="DW2">
-        <v>-99</v>
-      </c>
-      <c r="DX2">
-        <v>-99</v>
-      </c>
-      <c r="DY2">
-        <v>-99</v>
-      </c>
-      <c r="DZ2">
-        <v>-99</v>
-      </c>
-      <c r="EA2">
-        <v>-99</v>
-      </c>
-      <c r="EB2">
-        <v>-99</v>
-      </c>
-      <c r="EC2">
-        <v>-99</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EE2">
-        <v>-99</v>
-      </c>
-      <c r="EF2">
-        <v>-99</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>196</v>
-      </c>
-      <c r="EH2">
-        <v>-99</v>
-      </c>
-      <c r="EI2">
-        <v>-99</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>198</v>
-      </c>
-      <c r="EK2">
-        <v>-99</v>
-      </c>
-      <c r="EL2">
-        <v>-99</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN2">
-        <v>-99</v>
-      </c>
-      <c r="EO2">
-        <v>-99</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>199</v>
-      </c>
-      <c r="EQ2">
-        <v>-99</v>
-      </c>
-      <c r="ER2">
-        <v>-99</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>201</v>
-      </c>
       <c r="ET2">
         <v>-99</v>
       </c>
@@ -1947,7 +2599,7 @@
         <v>-99</v>
       </c>
       <c r="EV2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="EW2">
         <v>-99</v>
@@ -1974,10 +2626,10 @@
         <v>-99</v>
       </c>
       <c r="FE2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="FF2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="FG2">
         <v>1</v>
@@ -2009,31 +2661,31 @@
         <v>-99</v>
       </c>
       <c r="I3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" t="s">
         <v>167</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3">
+        <v>-99</v>
+      </c>
+      <c r="M3">
+        <v>-99</v>
+      </c>
+      <c r="N3">
+        <v>-99</v>
+      </c>
+      <c r="O3" t="s">
         <v>169</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3">
+        <v>-99</v>
+      </c>
+      <c r="Q3" t="s">
         <v>170</v>
-      </c>
-      <c r="L3">
-        <v>-99</v>
-      </c>
-      <c r="M3">
-        <v>-99</v>
-      </c>
-      <c r="N3">
-        <v>-99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3">
-        <v>-99</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>172</v>
       </c>
       <c r="R3">
         <v>-99</v>
@@ -2057,7 +2709,7 @@
         <v>-99</v>
       </c>
       <c r="Y3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z3">
         <v>-99</v>
@@ -2084,353 +2736,353 @@
         <v>19</v>
       </c>
       <c r="AH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>174</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>175</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>176</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>177</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO3" t="s">
         <v>179</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AP3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>181</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AR3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS3" t="s">
         <v>183</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AT3">
+        <v>-99</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV3">
+        <v>-99</v>
+      </c>
+      <c r="AW3">
+        <v>-99</v>
+      </c>
+      <c r="AX3">
+        <v>-99</v>
+      </c>
+      <c r="AY3">
+        <v>-99</v>
+      </c>
+      <c r="AZ3">
+        <v>-99</v>
+      </c>
+      <c r="BA3">
+        <v>-99</v>
+      </c>
+      <c r="BB3">
+        <v>-99</v>
+      </c>
+      <c r="BC3">
+        <v>-99</v>
+      </c>
+      <c r="BD3">
+        <v>-99</v>
+      </c>
+      <c r="BE3">
+        <v>-99</v>
+      </c>
+      <c r="BF3">
+        <v>-99</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH3">
+        <v>-99</v>
+      </c>
+      <c r="BI3">
+        <v>-99</v>
+      </c>
+      <c r="BJ3">
+        <v>-99</v>
+      </c>
+      <c r="BK3">
+        <v>-99</v>
+      </c>
+      <c r="BL3">
+        <v>-99</v>
+      </c>
+      <c r="BM3">
+        <v>-99</v>
+      </c>
+      <c r="BN3">
+        <v>-99</v>
+      </c>
+      <c r="BO3">
+        <v>-99</v>
+      </c>
+      <c r="BP3">
+        <v>-99</v>
+      </c>
+      <c r="BQ3">
+        <v>-99</v>
+      </c>
+      <c r="BR3">
+        <v>-99</v>
+      </c>
+      <c r="BS3">
+        <v>-99</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU3">
+        <v>-99</v>
+      </c>
+      <c r="BV3">
+        <v>-99</v>
+      </c>
+      <c r="BW3">
+        <v>-99</v>
+      </c>
+      <c r="BX3">
+        <v>-99</v>
+      </c>
+      <c r="BY3">
+        <v>-99</v>
+      </c>
+      <c r="BZ3">
+        <v>-99</v>
+      </c>
+      <c r="CA3">
+        <v>-99</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC3">
+        <v>-99</v>
+      </c>
+      <c r="CD3">
+        <v>-99</v>
+      </c>
+      <c r="CE3">
+        <v>-99</v>
+      </c>
+      <c r="CF3">
+        <v>-99</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH3">
+        <v>-99</v>
+      </c>
+      <c r="CI3">
+        <v>-99</v>
+      </c>
+      <c r="CJ3">
+        <v>-99</v>
+      </c>
+      <c r="CK3">
+        <v>-99</v>
+      </c>
+      <c r="CL3">
+        <v>-99</v>
+      </c>
+      <c r="CM3">
+        <v>-99</v>
+      </c>
+      <c r="CN3">
+        <v>-99</v>
+      </c>
+      <c r="CO3">
+        <v>-99</v>
+      </c>
+      <c r="CP3">
+        <v>-99</v>
+      </c>
+      <c r="CQ3">
+        <v>-99</v>
+      </c>
+      <c r="CR3">
+        <v>-99</v>
+      </c>
+      <c r="CS3">
+        <v>-99</v>
+      </c>
+      <c r="CT3">
+        <v>-99</v>
+      </c>
+      <c r="CU3">
+        <v>-99</v>
+      </c>
+      <c r="CV3">
+        <v>-99</v>
+      </c>
+      <c r="CW3">
+        <v>-99</v>
+      </c>
+      <c r="CX3">
+        <v>-99</v>
+      </c>
+      <c r="CY3">
+        <v>-99</v>
+      </c>
+      <c r="CZ3">
+        <v>-99</v>
+      </c>
+      <c r="DA3">
+        <v>-99</v>
+      </c>
+      <c r="DB3">
+        <v>-99</v>
+      </c>
+      <c r="DC3">
+        <v>-99</v>
+      </c>
+      <c r="DD3">
+        <v>-99</v>
+      </c>
+      <c r="DE3">
+        <v>-99</v>
+      </c>
+      <c r="DF3">
+        <v>-99</v>
+      </c>
+      <c r="DG3">
+        <v>-99</v>
+      </c>
+      <c r="DH3">
+        <v>-99</v>
+      </c>
+      <c r="DI3">
+        <v>-99</v>
+      </c>
+      <c r="DJ3">
+        <v>-99</v>
+      </c>
+      <c r="DK3">
+        <v>-99</v>
+      </c>
+      <c r="DL3">
+        <v>-99</v>
+      </c>
+      <c r="DM3">
+        <v>-99</v>
+      </c>
+      <c r="DN3">
+        <v>-99</v>
+      </c>
+      <c r="DO3">
+        <v>-99</v>
+      </c>
+      <c r="DP3">
+        <v>-99</v>
+      </c>
+      <c r="DQ3">
+        <v>-99</v>
+      </c>
+      <c r="DR3">
+        <v>-99</v>
+      </c>
+      <c r="DS3">
+        <v>-99</v>
+      </c>
+      <c r="DT3">
+        <v>-99</v>
+      </c>
+      <c r="DU3">
+        <v>-99</v>
+      </c>
+      <c r="DV3">
+        <v>-99</v>
+      </c>
+      <c r="DW3">
+        <v>-99</v>
+      </c>
+      <c r="DX3">
+        <v>-99</v>
+      </c>
+      <c r="DY3">
+        <v>-99</v>
+      </c>
+      <c r="DZ3">
+        <v>-99</v>
+      </c>
+      <c r="EA3">
+        <v>-99</v>
+      </c>
+      <c r="EB3">
+        <v>-99</v>
+      </c>
+      <c r="EC3">
+        <v>-99</v>
+      </c>
+      <c r="ED3" t="s">
         <v>185</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="EE3">
+        <v>-99</v>
+      </c>
+      <c r="EF3">
+        <v>-99</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EH3">
+        <v>-99</v>
+      </c>
+      <c r="EI3">
+        <v>-99</v>
+      </c>
+      <c r="EJ3" t="s">
         <v>187</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="EK3">
+        <v>-99</v>
+      </c>
+      <c r="EL3">
+        <v>-99</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EN3">
+        <v>-99</v>
+      </c>
+      <c r="EO3">
+        <v>-99</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EQ3">
+        <v>-99</v>
+      </c>
+      <c r="ER3">
+        <v>-99</v>
+      </c>
+      <c r="ES3" t="s">
         <v>189</v>
       </c>
-      <c r="AR3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT3">
-        <v>-99</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV3">
-        <v>-99</v>
-      </c>
-      <c r="AW3">
-        <v>-99</v>
-      </c>
-      <c r="AX3">
-        <v>-99</v>
-      </c>
-      <c r="AY3">
-        <v>-99</v>
-      </c>
-      <c r="AZ3">
-        <v>-99</v>
-      </c>
-      <c r="BA3">
-        <v>-99</v>
-      </c>
-      <c r="BB3">
-        <v>-99</v>
-      </c>
-      <c r="BC3">
-        <v>-99</v>
-      </c>
-      <c r="BD3">
-        <v>-99</v>
-      </c>
-      <c r="BE3">
-        <v>-99</v>
-      </c>
-      <c r="BF3">
-        <v>-99</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH3">
-        <v>-99</v>
-      </c>
-      <c r="BI3">
-        <v>-99</v>
-      </c>
-      <c r="BJ3">
-        <v>-99</v>
-      </c>
-      <c r="BK3">
-        <v>-99</v>
-      </c>
-      <c r="BL3">
-        <v>-99</v>
-      </c>
-      <c r="BM3">
-        <v>-99</v>
-      </c>
-      <c r="BN3">
-        <v>-99</v>
-      </c>
-      <c r="BO3">
-        <v>-99</v>
-      </c>
-      <c r="BP3">
-        <v>-99</v>
-      </c>
-      <c r="BQ3">
-        <v>-99</v>
-      </c>
-      <c r="BR3">
-        <v>-99</v>
-      </c>
-      <c r="BS3">
-        <v>-99</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU3">
-        <v>-99</v>
-      </c>
-      <c r="BV3">
-        <v>-99</v>
-      </c>
-      <c r="BW3">
-        <v>-99</v>
-      </c>
-      <c r="BX3">
-        <v>-99</v>
-      </c>
-      <c r="BY3">
-        <v>-99</v>
-      </c>
-      <c r="BZ3">
-        <v>-99</v>
-      </c>
-      <c r="CA3">
-        <v>-99</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC3">
-        <v>-99</v>
-      </c>
-      <c r="CD3">
-        <v>-99</v>
-      </c>
-      <c r="CE3">
-        <v>-99</v>
-      </c>
-      <c r="CF3">
-        <v>-99</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH3">
-        <v>-99</v>
-      </c>
-      <c r="CI3">
-        <v>-99</v>
-      </c>
-      <c r="CJ3">
-        <v>-99</v>
-      </c>
-      <c r="CK3">
-        <v>-99</v>
-      </c>
-      <c r="CL3">
-        <v>-99</v>
-      </c>
-      <c r="CM3">
-        <v>-99</v>
-      </c>
-      <c r="CN3">
-        <v>-99</v>
-      </c>
-      <c r="CO3">
-        <v>-99</v>
-      </c>
-      <c r="CP3">
-        <v>-99</v>
-      </c>
-      <c r="CQ3">
-        <v>-99</v>
-      </c>
-      <c r="CR3">
-        <v>-99</v>
-      </c>
-      <c r="CS3">
-        <v>-99</v>
-      </c>
-      <c r="CT3">
-        <v>-99</v>
-      </c>
-      <c r="CU3">
-        <v>-99</v>
-      </c>
-      <c r="CV3">
-        <v>-99</v>
-      </c>
-      <c r="CW3">
-        <v>-99</v>
-      </c>
-      <c r="CX3">
-        <v>-99</v>
-      </c>
-      <c r="CY3">
-        <v>-99</v>
-      </c>
-      <c r="CZ3">
-        <v>-99</v>
-      </c>
-      <c r="DA3">
-        <v>-99</v>
-      </c>
-      <c r="DB3">
-        <v>-99</v>
-      </c>
-      <c r="DC3">
-        <v>-99</v>
-      </c>
-      <c r="DD3">
-        <v>-99</v>
-      </c>
-      <c r="DE3">
-        <v>-99</v>
-      </c>
-      <c r="DF3">
-        <v>-99</v>
-      </c>
-      <c r="DG3">
-        <v>-99</v>
-      </c>
-      <c r="DH3">
-        <v>-99</v>
-      </c>
-      <c r="DI3">
-        <v>-99</v>
-      </c>
-      <c r="DJ3">
-        <v>-99</v>
-      </c>
-      <c r="DK3">
-        <v>-99</v>
-      </c>
-      <c r="DL3">
-        <v>-99</v>
-      </c>
-      <c r="DM3">
-        <v>-99</v>
-      </c>
-      <c r="DN3">
-        <v>-99</v>
-      </c>
-      <c r="DO3">
-        <v>-99</v>
-      </c>
-      <c r="DP3">
-        <v>-99</v>
-      </c>
-      <c r="DQ3">
-        <v>-99</v>
-      </c>
-      <c r="DR3">
-        <v>-99</v>
-      </c>
-      <c r="DS3">
-        <v>-99</v>
-      </c>
-      <c r="DT3">
-        <v>-99</v>
-      </c>
-      <c r="DU3">
-        <v>-99</v>
-      </c>
-      <c r="DV3">
-        <v>-99</v>
-      </c>
-      <c r="DW3">
-        <v>-99</v>
-      </c>
-      <c r="DX3">
-        <v>-99</v>
-      </c>
-      <c r="DY3">
-        <v>-99</v>
-      </c>
-      <c r="DZ3">
-        <v>-99</v>
-      </c>
-      <c r="EA3">
-        <v>-99</v>
-      </c>
-      <c r="EB3">
-        <v>-99</v>
-      </c>
-      <c r="EC3">
-        <v>-99</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EE3">
-        <v>-99</v>
-      </c>
-      <c r="EF3">
-        <v>-99</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>196</v>
-      </c>
-      <c r="EH3">
-        <v>-99</v>
-      </c>
-      <c r="EI3">
-        <v>-99</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EK3">
-        <v>-99</v>
-      </c>
-      <c r="EL3">
-        <v>-99</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN3">
-        <v>-99</v>
-      </c>
-      <c r="EO3">
-        <v>-99</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EQ3">
-        <v>-99</v>
-      </c>
-      <c r="ER3">
-        <v>-99</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>201</v>
-      </c>
       <c r="ET3">
         <v>-99</v>
       </c>
@@ -2438,7 +3090,7 @@
         <v>-99</v>
       </c>
       <c r="EV3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="EW3">
         <v>-99</v>
@@ -2465,10 +3117,10 @@
         <v>-99</v>
       </c>
       <c r="FE3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="FF3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="FG3">
         <v>1</v>
@@ -2500,31 +3152,31 @@
         <v>-99</v>
       </c>
       <c r="I4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" t="s">
         <v>168</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4">
+        <v>-99</v>
+      </c>
+      <c r="M4">
+        <v>-99</v>
+      </c>
+      <c r="N4">
+        <v>-99</v>
+      </c>
+      <c r="O4" t="s">
         <v>169</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4">
+        <v>-99</v>
+      </c>
+      <c r="Q4" t="s">
         <v>170</v>
-      </c>
-      <c r="L4">
-        <v>-99</v>
-      </c>
-      <c r="M4">
-        <v>-99</v>
-      </c>
-      <c r="N4">
-        <v>-99</v>
-      </c>
-      <c r="O4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4">
-        <v>-99</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>172</v>
       </c>
       <c r="R4">
         <v>-99</v>
@@ -2548,7 +3200,7 @@
         <v>-99</v>
       </c>
       <c r="Y4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z4">
         <v>-99</v>
@@ -2575,83 +3227,83 @@
         <v>19</v>
       </c>
       <c r="AH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>174</v>
       </c>
-      <c r="AI4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>176</v>
-      </c>
       <c r="AK4" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AL4" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AM4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR4" t="s">
         <v>182</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AS4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT4">
+        <v>-99</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV4">
+        <v>-99</v>
+      </c>
+      <c r="AW4">
+        <v>-99</v>
+      </c>
+      <c r="AX4">
+        <v>-99</v>
+      </c>
+      <c r="AY4">
+        <v>-99</v>
+      </c>
+      <c r="AZ4">
+        <v>-99</v>
+      </c>
+      <c r="BA4">
+        <v>-99</v>
+      </c>
+      <c r="BB4">
+        <v>-99</v>
+      </c>
+      <c r="BC4">
+        <v>-99</v>
+      </c>
+      <c r="BD4">
+        <v>-99</v>
+      </c>
+      <c r="BE4">
+        <v>-99</v>
+      </c>
+      <c r="BF4">
+        <v>-99</v>
+      </c>
+      <c r="BG4" t="s">
         <v>184</v>
       </c>
-      <c r="AO4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT4">
-        <v>-99</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV4">
-        <v>-99</v>
-      </c>
-      <c r="AW4">
-        <v>-99</v>
-      </c>
-      <c r="AX4">
-        <v>-99</v>
-      </c>
-      <c r="AY4">
-        <v>-99</v>
-      </c>
-      <c r="AZ4">
-        <v>-99</v>
-      </c>
-      <c r="BA4">
-        <v>-99</v>
-      </c>
-      <c r="BB4">
-        <v>-99</v>
-      </c>
-      <c r="BC4">
-        <v>-99</v>
-      </c>
-      <c r="BD4">
-        <v>-99</v>
-      </c>
-      <c r="BE4">
-        <v>-99</v>
-      </c>
-      <c r="BF4">
-        <v>-99</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>193</v>
-      </c>
       <c r="BH4">
         <v>-99</v>
       </c>
@@ -2689,7 +3341,7 @@
         <v>-99</v>
       </c>
       <c r="BT4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BU4">
         <v>-99</v>
@@ -2713,7 +3365,7 @@
         <v>-99</v>
       </c>
       <c r="CB4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CC4">
         <v>-99</v>
@@ -2728,7 +3380,7 @@
         <v>-99</v>
       </c>
       <c r="CG4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CH4">
         <v>-99</v>
@@ -2875,7 +3527,7 @@
         <v>-99</v>
       </c>
       <c r="ED4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="EE4">
         <v>-99</v>
@@ -2884,7 +3536,7 @@
         <v>-99</v>
       </c>
       <c r="EG4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="EH4">
         <v>-99</v>
@@ -2893,7 +3545,7 @@
         <v>-99</v>
       </c>
       <c r="EJ4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="EK4">
         <v>-99</v>
@@ -2902,7 +3554,7 @@
         <v>-99</v>
       </c>
       <c r="EM4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="EN4">
         <v>-99</v>
@@ -2911,7 +3563,7 @@
         <v>-99</v>
       </c>
       <c r="EP4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="EQ4">
         <v>-99</v>
@@ -2920,7 +3572,7 @@
         <v>-99</v>
       </c>
       <c r="ES4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="ET4">
         <v>-99</v>
@@ -2929,7 +3581,7 @@
         <v>-99</v>
       </c>
       <c r="EV4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="EW4">
         <v>-99</v>
@@ -2947,7 +3599,7 @@
         <v>-99</v>
       </c>
       <c r="FB4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="FC4">
         <v>-99</v>
@@ -2956,7 +3608,7 @@
         <v>-99</v>
       </c>
       <c r="FE4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="FF4">
         <v>-99</v>
@@ -2967,5 +3619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>